--- a/AutoAttack_Results.xlsx
+++ b/AutoAttack_Results.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6910ED2A-0F3B-496F-BABD-3D7485F7A660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteoasuni/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DAF14E-7F28-F74F-9B93-831F7D59EDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy 100 Samples" sheetId="3" r:id="rId1"/>
@@ -976,7 +981,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,9 +1479,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1486,9 +1488,6 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,13 +1504,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1521,9 +1514,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1547,15 +1537,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1566,14 +1547,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,17 +1585,47 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,9 +1665,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1700,7 +1705,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1806,7 +1811,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1948,7 +1953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1959,2012 +1964,2013 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="13" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="13" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="49"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="41">
         <v>0.89</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="41">
         <v>1</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="41">
         <v>0.83330000000000004</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="41">
         <v>0.875</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="41">
         <v>0.9</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="41">
         <v>0.71430000000000005</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="41">
         <v>0.75</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="41">
         <v>0.9375</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="41">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="41">
         <v>1</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="42">
         <v>0.6</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="42">
         <v>0.5</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="42">
         <v>0.625</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="42">
         <v>0.3</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="42">
         <v>0.375</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="42">
         <v>0.5625</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="42">
         <v>0.53</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="42">
         <v>0.5</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="42">
         <v>0.5</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="42">
         <v>0.625</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="42">
         <v>0.2</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="42">
         <v>0.375</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="42">
         <v>0.4375</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="51"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="42">
         <v>0.53</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="42">
         <v>0.5</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="42">
         <v>0.5</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="42">
         <v>0.625</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="42">
         <v>0.2</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="42">
         <v>0.375</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="42">
         <v>0.4375</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="51"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="42">
         <v>0.53</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="42">
         <v>0.5</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="42">
         <v>0.5</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="42">
         <v>0.625</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="42">
         <v>0.2</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="42">
         <v>0.375</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="42">
         <v>0.4375</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75">
-      <c r="A7" s="49"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="41">
         <v>0.91</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="41">
         <v>1</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="41">
         <v>0.83330000000000004</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="41">
         <v>1</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="41">
         <v>0.8</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="41">
         <v>0.71430000000000005</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="41">
         <v>0.75</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="41">
         <v>0.9375</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="41">
         <v>0.90910000000000002</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="41">
         <v>1</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75">
-      <c r="A8" s="51"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="42">
         <v>0.54</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="42">
         <v>0.8</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="42">
         <v>0.5</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="42">
         <v>0.5</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="42">
         <v>0.3</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="42">
         <v>0.125</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="42">
         <v>0.5625</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="42">
         <v>0.54549999999999998</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="42">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.72729999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="42">
         <v>0.51</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="42">
         <v>0.8</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="42">
         <v>0.5</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="42">
         <v>0.5</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="42">
         <v>0.2</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="42">
         <v>0.125</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="42">
         <v>0.5</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="42">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.72729999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="51"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="42">
         <v>0.49</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="42">
         <v>0.8</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="42">
         <v>0.5</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="42">
         <v>0.5</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="42">
         <v>0.1</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="42">
         <v>0.125</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="42">
         <v>0.4375</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="42">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>0.72729999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
-      <c r="A11" s="51"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="42">
         <v>0.49</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="42">
         <v>0.8</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="42">
         <v>0.5</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="42">
         <v>0.5</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="42">
         <v>0.1</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="42">
         <v>0.125</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="42">
         <v>0.4375</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="42">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>0.72729999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75">
-      <c r="A12" s="49"/>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="41">
         <v>0.94</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="41">
         <v>1</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="41">
         <v>0.83330000000000004</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="41">
         <v>1</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="41">
         <v>1</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="41">
         <v>0.71430000000000005</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="41">
         <v>0.75</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="41">
         <v>0.9375</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="41">
         <v>1</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="41">
         <v>1</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75">
-      <c r="A13" s="51"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="42">
         <v>0.9</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="42">
         <v>0.5</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="42">
         <v>0.625</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="42">
         <v>0.2</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="42">
         <v>0.25</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="42">
         <v>0.5625</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="42">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="42">
         <v>0.76919999999999999</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="42">
         <v>0.9</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="42">
         <v>0.5</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="42">
         <v>0.625</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="42">
         <v>0.1</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="42">
         <v>0.25</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="42">
         <v>0.5</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="42">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="42">
         <v>0.76919999999999999</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="51"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="42">
         <v>0.9</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="42">
         <v>0.5</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="42">
         <v>0.625</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="42">
         <v>0.1</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="42">
         <v>0.25</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="42">
         <v>0.5</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="42">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="42">
         <v>0.76919999999999999</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75">
-      <c r="A16" s="51"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="42">
         <v>0.9</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="42">
         <v>0.5</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="42">
         <v>0.625</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="42">
         <v>0.1</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="42">
         <v>0.25</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="42">
         <v>0.5</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="42">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="42">
         <v>0.76919999999999999</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75">
-      <c r="A17" s="49"/>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="41">
         <v>0.93</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="41">
         <v>1</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="41">
         <v>0.83330000000000004</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="41">
         <v>1</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="41">
         <v>0.9</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="41">
         <v>0.85709999999999997</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="41">
         <v>0.625</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="41">
         <v>0.9375</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="41">
         <v>1</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="41">
         <v>1</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="51"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="42">
         <v>0.51</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="42">
         <v>0.8</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="42">
         <v>0.5</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="42">
         <v>0.5</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="42">
         <v>0</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="42">
         <v>0.25</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J18" s="42">
         <v>0.375</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="42">
         <v>0.54549999999999998</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="42">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="42">
         <v>0.5</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="42">
         <v>0.8</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="42">
         <v>0.5</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="42">
         <v>0.5</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="52">
+      <c r="G19" s="43"/>
+      <c r="H19" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="42">
         <v>0.25</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="42">
         <v>0.375</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="42">
         <v>0.54549999999999998</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="42">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75">
-      <c r="A20" s="51"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="42">
         <v>0.5</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="42">
         <v>0.8</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="42">
         <v>0.5</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="42">
         <v>0.5</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="52">
+      <c r="G20" s="43"/>
+      <c r="H20" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="42">
         <v>0.25</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="42">
         <v>0.375</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="42">
         <v>0.54549999999999998</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="42">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75">
-      <c r="A21" s="54"/>
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="45">
         <v>0.5</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="45">
         <v>0.8</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="45">
         <v>0.5</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="45">
         <v>0.5</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="55">
+      <c r="G21" s="46"/>
+      <c r="H21" s="45">
         <v>0.1429</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="45">
         <v>0.25</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="45">
         <v>0.375</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="45">
         <v>0.54549999999999998</v>
       </c>
-      <c r="L21" s="55">
+      <c r="L21" s="45">
         <v>0.84619999999999995</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="22">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
-      <c r="A22" s="51"/>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="42">
         <v>0.95</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="42">
         <v>1</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="42">
         <v>1</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="42">
         <v>1</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="42">
         <v>0.9</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="42">
         <v>0.85709999999999997</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="42">
         <v>0.75</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="42">
         <v>0.9375</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="42">
         <v>1</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="42">
         <v>1</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75">
-      <c r="A23" s="51"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="42">
         <v>0.74</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="42">
         <v>0.9</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="42">
         <v>0.5</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="42">
         <v>0.625</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="42">
         <v>0.6</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="42">
         <v>0.57140000000000002</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="42">
         <v>0.5</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="42">
         <v>0.75</v>
       </c>
-      <c r="K23" s="52">
+      <c r="K23" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L23" s="52">
+      <c r="L23" s="42">
         <v>1</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75">
-      <c r="A24" s="51" t="s">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="42">
         <v>0.7</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="42">
         <v>0.9</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="42">
         <v>0.5</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="42">
         <v>0.625</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="42">
         <v>0.2</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="42">
         <v>0.42859999999999998</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="42">
         <v>0.5</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="42">
         <v>0.75</v>
       </c>
-      <c r="K24" s="52">
+      <c r="K24" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L24" s="52">
+      <c r="L24" s="42">
         <v>1</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="51"/>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="42">
         <v>0.69</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="42">
         <v>0.9</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="42">
         <v>0.5</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="42">
         <v>0.625</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="42">
         <v>0.2</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="42">
         <v>0.42859999999999998</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="42">
         <v>0.5</v>
       </c>
-      <c r="J25" s="52">
+      <c r="J25" s="42">
         <v>0.75</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L25" s="52">
+      <c r="L25" s="42">
         <v>1</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75">
-      <c r="A26" s="54"/>
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="47">
         <v>0.69</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="48">
         <v>0.9</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="48">
         <v>0.5</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="48">
         <v>0.625</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="48">
         <v>0.2</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="48">
         <v>0.42859999999999998</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="48">
         <v>0.5</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="48">
         <v>0.75</v>
       </c>
-      <c r="K26" s="58">
+      <c r="K26" s="48">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="48">
         <v>1</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="18">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
-      <c r="A27" s="51"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="42">
         <v>0.95</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="42">
         <v>1</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="42">
         <v>1</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="42">
         <v>1</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="42">
         <v>0.9</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="42">
         <v>0.85709999999999997</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="42">
         <v>0.75</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="42">
         <v>0.9375</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="42">
         <v>1</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="42">
         <v>1</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75">
-      <c r="A28" s="51"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="42">
         <v>0.73</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="42">
         <v>0.9</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="42">
         <v>0.5</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="42">
         <v>0.625</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="42">
         <v>0.6</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="42">
         <v>0.42859999999999998</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="42">
         <v>0.5</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="42">
         <v>0.75</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="42">
         <v>1</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18.75">
-      <c r="A29" s="51" t="s">
+    <row r="29" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="42">
         <v>0.68</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="42">
         <v>0.9</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="42">
         <v>0.5</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="42">
         <v>0.625</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="42">
         <v>0.3</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H29" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="42">
         <v>0.5</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="42">
         <v>0.6875</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="42">
         <v>1</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
-      <c r="A30" s="51"/>
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="42">
         <v>0.68</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="42">
         <v>0.9</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="42">
         <v>0.5</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="42">
         <v>0.625</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="42">
         <v>0.3</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="42">
         <v>0.5</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="42">
         <v>0.6875</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L30" s="52">
+      <c r="L30" s="42">
         <v>1</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75">
-      <c r="A31" s="54"/>
-      <c r="B31" s="26" t="s">
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="47">
         <v>0.68</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="48">
         <v>0.9</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="48">
         <v>0.5</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="48">
         <v>0.625</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="48">
         <v>0.3</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="48">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="48">
         <v>0.5</v>
       </c>
-      <c r="J31" s="58">
+      <c r="J31" s="48">
         <v>0.6875</v>
       </c>
-      <c r="K31" s="58">
+      <c r="K31" s="48">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L31" s="58">
+      <c r="L31" s="48">
         <v>1</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="18">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75">
-      <c r="A32" s="51"/>
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="42">
         <v>0.91</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="42">
         <v>1</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="42">
         <v>0.83330000000000004</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="42">
         <v>1</v>
       </c>
-      <c r="G32" s="52">
+      <c r="G32" s="42">
         <v>0.9</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H32" s="42">
         <v>0.85709999999999997</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="42">
         <v>0.625</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="42">
         <v>0.9375</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="42">
         <v>0.90910000000000002</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="42">
         <v>1</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18.75">
-      <c r="A33" s="51"/>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="42">
         <v>0.9</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="42">
         <v>0.16669999999999999</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="42">
         <v>0.625</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="42">
         <v>0.3</v>
       </c>
-      <c r="H33" s="52">
+      <c r="H33" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="42">
         <v>0.375</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="42">
         <v>0.5625</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18.75">
-      <c r="A34" s="51" t="s">
+    <row r="34" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="42">
         <v>0.9</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="42">
         <v>0.16669999999999999</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="42">
         <v>0.625</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G34" s="42">
         <v>0.2</v>
       </c>
-      <c r="H34" s="52">
+      <c r="H34" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="42">
         <v>0.375</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="42">
         <v>0.5</v>
       </c>
-      <c r="K34" s="52">
+      <c r="K34" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18.75">
-      <c r="A35" s="51"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="42">
         <v>0.9</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="42">
         <v>0.16669999999999999</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="42">
         <v>0.625</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="42">
         <v>0.2</v>
       </c>
-      <c r="H35" s="52">
+      <c r="H35" s="42">
         <v>0.1429</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="42">
         <v>0.375</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="42">
         <v>0.5</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K35" s="42">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18.75">
-      <c r="A36" s="54"/>
-      <c r="B36" s="26" t="s">
+    <row r="36" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="47">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D36" s="58">
+      <c r="D36" s="48">
         <v>0.9</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="48">
         <v>0.16669999999999999</v>
       </c>
-      <c r="F36" s="58">
+      <c r="F36" s="48">
         <v>0.625</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="48">
         <v>0.2</v>
       </c>
-      <c r="H36" s="58">
+      <c r="H36" s="48">
         <v>0.1429</v>
       </c>
-      <c r="I36" s="58">
+      <c r="I36" s="48">
         <v>0.375</v>
       </c>
-      <c r="J36" s="58">
+      <c r="J36" s="48">
         <v>0.5</v>
       </c>
-      <c r="K36" s="58">
+      <c r="K36" s="48">
         <v>0.45450000000000002</v>
       </c>
-      <c r="L36" s="58">
+      <c r="L36" s="48">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="18">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18.75">
-      <c r="A37" s="51"/>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="42">
         <v>0.95</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="42">
         <v>1</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="42">
         <v>1</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="42">
         <v>1</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="42">
         <v>0.9</v>
       </c>
-      <c r="H37" s="52">
+      <c r="H37" s="42">
         <v>0.85709999999999997</v>
       </c>
-      <c r="I37" s="52">
+      <c r="I37" s="42">
         <v>0.75</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="42">
         <v>0.9375</v>
       </c>
-      <c r="K37" s="52">
+      <c r="K37" s="42">
         <v>1</v>
       </c>
-      <c r="L37" s="52">
+      <c r="L37" s="42">
         <v>1</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18.75">
-      <c r="A38" s="51"/>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="42">
         <v>0.74</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="42">
         <v>0.9</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="42">
         <v>0.5</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="42">
         <v>0.625</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="42">
         <v>0.6</v>
       </c>
-      <c r="H38" s="52">
+      <c r="H38" s="42">
         <v>0.57140000000000002</v>
       </c>
-      <c r="I38" s="52">
+      <c r="I38" s="42">
         <v>0.5</v>
       </c>
-      <c r="J38" s="52">
+      <c r="J38" s="42">
         <v>0.75</v>
       </c>
-      <c r="K38" s="52">
+      <c r="K38" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L38" s="52">
+      <c r="L38" s="42">
         <v>1</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18.75">
-      <c r="A39" s="51" t="s">
+    <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="42">
         <v>0.69</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="42">
         <v>0.9</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="42">
         <v>0.5</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="42">
         <v>0.625</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="42">
         <v>0.3</v>
       </c>
-      <c r="H39" s="52">
+      <c r="H39" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I39" s="52">
+      <c r="I39" s="42">
         <v>0.5</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J39" s="42">
         <v>0.75</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K39" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L39" s="52">
+      <c r="L39" s="42">
         <v>1</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18.75">
-      <c r="A40" s="51"/>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="42">
         <v>0.68</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="42">
         <v>0.9</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="42">
         <v>0.5</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="42">
         <v>0.625</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="42">
         <v>0.2</v>
       </c>
-      <c r="H40" s="52">
+      <c r="H40" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I40" s="42">
         <v>0.5</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J40" s="42">
         <v>0.75</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="42">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L40" s="52">
+      <c r="L40" s="42">
         <v>1</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18.75">
-      <c r="A41" s="54"/>
-      <c r="B41" s="26" t="s">
+    <row r="41" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="47">
         <v>0.68</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="48">
         <v>0.9</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="48">
         <v>0.5</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="48">
         <v>0.625</v>
       </c>
-      <c r="G41" s="58">
+      <c r="G41" s="48">
         <v>0.2</v>
       </c>
-      <c r="H41" s="58">
+      <c r="H41" s="48">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I41" s="58">
+      <c r="I41" s="48">
         <v>0.5</v>
       </c>
-      <c r="J41" s="58">
+      <c r="J41" s="48">
         <v>0.75</v>
       </c>
-      <c r="K41" s="58">
+      <c r="K41" s="48">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L41" s="48">
         <v>1</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="18">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18.75">
-      <c r="A42" s="51"/>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="42">
         <v>0.91</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="42">
         <v>1</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="42">
         <v>0.83330000000000004</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="42">
         <v>0.75</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="42">
         <v>0.9</v>
       </c>
-      <c r="H42" s="52">
+      <c r="H42" s="42">
         <v>0.71430000000000005</v>
       </c>
-      <c r="I42" s="52">
+      <c r="I42" s="42">
         <v>0.75</v>
       </c>
-      <c r="J42" s="52">
+      <c r="J42" s="42">
         <v>0.9375</v>
       </c>
-      <c r="K42" s="52">
+      <c r="K42" s="42">
         <v>1</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="42">
         <v>1</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18.75">
-      <c r="A43" s="51"/>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C43" s="42">
         <v>0.69</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="42">
         <v>0.8</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="42">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="42">
         <v>0.625</v>
       </c>
-      <c r="G43" s="52">
+      <c r="G43" s="42">
         <v>0.6</v>
       </c>
-      <c r="H43" s="52">
+      <c r="H43" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I43" s="52">
+      <c r="I43" s="42">
         <v>0.5</v>
       </c>
-      <c r="J43" s="52">
+      <c r="J43" s="42">
         <v>0.6875</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="42">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18.75">
-      <c r="A44" s="51" t="s">
+    <row r="44" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="42">
         <v>0.66</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="42">
         <v>0.8</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="42">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="42">
         <v>0.625</v>
       </c>
-      <c r="G44" s="52">
+      <c r="G44" s="42">
         <v>0.5</v>
       </c>
-      <c r="H44" s="52">
+      <c r="H44" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I44" s="42">
         <v>0.5</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="42">
         <v>0.5625</v>
       </c>
-      <c r="K44" s="52">
+      <c r="K44" s="42">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L44" s="52">
+      <c r="L44" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18.75">
-      <c r="A45" s="51"/>
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="42">
         <v>0.66</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="42">
         <v>0.8</v>
       </c>
-      <c r="E45" s="52">
+      <c r="E45" s="42">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="42">
         <v>0.625</v>
       </c>
-      <c r="G45" s="52">
+      <c r="G45" s="42">
         <v>0.5</v>
       </c>
-      <c r="H45" s="52">
+      <c r="H45" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="42">
         <v>0.5</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="42">
         <v>0.5625</v>
       </c>
-      <c r="K45" s="52">
+      <c r="K45" s="42">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L45" s="52">
+      <c r="L45" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18.75">
-      <c r="A46" s="54"/>
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="47">
         <v>0.66</v>
       </c>
-      <c r="D46" s="58">
+      <c r="D46" s="48">
         <v>0.8</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="48">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F46" s="58">
+      <c r="F46" s="48">
         <v>0.625</v>
       </c>
-      <c r="G46" s="58">
+      <c r="G46" s="48">
         <v>0.5</v>
       </c>
-      <c r="H46" s="58">
+      <c r="H46" s="48">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I46" s="58">
+      <c r="I46" s="48">
         <v>0.5</v>
       </c>
-      <c r="J46" s="58">
+      <c r="J46" s="48">
         <v>0.5625</v>
       </c>
-      <c r="K46" s="58">
+      <c r="K46" s="48">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L46" s="58">
+      <c r="L46" s="48">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="18">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18.75">
-      <c r="A47" s="51"/>
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="42">
         <v>0.92</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="42">
         <v>1</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="42">
         <v>0.83330000000000004</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="42">
         <v>1</v>
       </c>
-      <c r="G47" s="52">
+      <c r="G47" s="42">
         <v>0.8</v>
       </c>
-      <c r="H47" s="52">
+      <c r="H47" s="42">
         <v>0.85709999999999997</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="42">
         <v>0.75</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="42">
         <v>0.9375</v>
       </c>
-      <c r="K47" s="52">
+      <c r="K47" s="42">
         <v>1</v>
       </c>
-      <c r="L47" s="52">
+      <c r="L47" s="42">
         <v>1</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18.75">
-      <c r="A48" s="51"/>
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="42">
         <v>0.67</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="42">
         <v>0.9</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="42">
         <v>0.5</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="42">
         <v>0.625</v>
       </c>
-      <c r="G48" s="52">
+      <c r="G48" s="42">
         <v>0.2</v>
       </c>
-      <c r="H48" s="52">
+      <c r="H48" s="42">
         <v>0.42859999999999998</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I48" s="42">
         <v>0.375</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J48" s="42">
         <v>0.6875</v>
       </c>
-      <c r="K48" s="52">
+      <c r="K48" s="42">
         <v>0.81820000000000004</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18.75">
-      <c r="A49" s="51" t="s">
+    <row r="49" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="42">
         <v>0.62</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="42">
         <v>0.9</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="42">
         <v>0.5</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="42">
         <v>0.625</v>
       </c>
-      <c r="G49" s="52">
+      <c r="G49" s="42">
         <v>0</v>
       </c>
-      <c r="H49" s="52">
+      <c r="H49" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="42">
         <v>0.25</v>
       </c>
-      <c r="J49" s="52">
+      <c r="J49" s="42">
         <v>0.625</v>
       </c>
-      <c r="K49" s="52">
+      <c r="K49" s="42">
         <v>0.81820000000000004</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18.75">
-      <c r="A50" s="51"/>
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C50" s="42">
         <v>0.62</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="42">
         <v>0.9</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="42">
         <v>0.5</v>
       </c>
-      <c r="F50" s="52">
+      <c r="F50" s="42">
         <v>0.625</v>
       </c>
-      <c r="G50" s="59"/>
-      <c r="H50" s="52">
+      <c r="G50" s="49"/>
+      <c r="H50" s="42">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I50" s="52">
+      <c r="I50" s="42">
         <v>0.25</v>
       </c>
-      <c r="J50" s="52">
+      <c r="J50" s="42">
         <v>0.625</v>
       </c>
-      <c r="K50" s="52">
+      <c r="K50" s="42">
         <v>0.81820000000000004</v>
       </c>
-      <c r="L50" s="52">
+      <c r="L50" s="42">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18.75">
-      <c r="A51" s="54"/>
-      <c r="B51" s="26" t="s">
+    <row r="51" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="57">
+      <c r="C51" s="47">
         <v>0.62</v>
       </c>
-      <c r="D51" s="58">
+      <c r="D51" s="48">
         <v>0.9</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="48">
         <v>0.5</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="48">
         <v>0.625</v>
       </c>
-      <c r="G51" s="60"/>
-      <c r="H51" s="58">
+      <c r="G51" s="50"/>
+      <c r="H51" s="48">
         <v>0.28570000000000001</v>
       </c>
-      <c r="I51" s="58">
+      <c r="I51" s="48">
         <v>0.25</v>
       </c>
-      <c r="J51" s="58">
+      <c r="J51" s="48">
         <v>0.625</v>
       </c>
-      <c r="K51" s="58">
+      <c r="K51" s="48">
         <v>0.81820000000000004</v>
       </c>
-      <c r="L51" s="58">
+      <c r="L51" s="48">
         <v>0.92310000000000003</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="18">
         <v>0.90910000000000002</v>
       </c>
     </row>
@@ -3977,1625 +3983,1626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28F8EE5-0E7C-43A1-97FB-064B31B008ED}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="13" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="13" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75">
-      <c r="A3" s="37"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75">
-      <c r="A4" s="37"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="37"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75">
-      <c r="A7" s="37"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="L7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75">
-      <c r="A8" s="37"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="63" t="s">
+      <c r="L8" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="64" t="s">
+      <c r="M8" s="54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="37"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="64" t="s">
+      <c r="M9" s="54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
-      <c r="A11" s="37"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K11" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75">
-      <c r="A12" s="37"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75">
-      <c r="A13" s="37"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="64" t="s">
+      <c r="M13" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="37"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="58"/>
+      <c r="H15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="64" t="s">
+      <c r="M15" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75">
-      <c r="A16" s="37"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="38" t="s">
+      <c r="G16" s="58"/>
+      <c r="H16" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="64" t="s">
+      <c r="M16" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75">
-      <c r="A17" s="69"/>
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="70" t="s">
+      <c r="G17" s="60"/>
+      <c r="H17" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="70" t="s">
+      <c r="K17" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="72" t="s">
+      <c r="M17" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
-      <c r="A19" s="41"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75">
-      <c r="A20" s="41"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75">
-      <c r="A21" s="73"/>
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="43" t="s">
+      <c r="L21" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="H22" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="63" t="s">
+      <c r="K22" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="63" t="s">
+      <c r="L22" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="64" t="s">
+      <c r="M22" s="54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75">
-      <c r="A23" s="37"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="K23" s="63" t="s">
+      <c r="K23" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="63" t="s">
+      <c r="L23" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="64" t="s">
+      <c r="M23" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75">
-      <c r="A24" s="37"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="K24" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="64" t="s">
+      <c r="M24" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="69"/>
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="66"/>
+      <c r="B25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="70" t="s">
+      <c r="K25" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="70" t="s">
+      <c r="L25" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="72" t="s">
+      <c r="M25" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="66" t="s">
+      <c r="I26" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="66" t="s">
+      <c r="J26" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="K26" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="66" t="s">
+      <c r="L26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="67" t="s">
+      <c r="M26" s="57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
-      <c r="A27" s="37"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="64" t="s">
+      <c r="M27" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75">
-      <c r="A28" s="37"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
+      <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J28" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="64" t="s">
+      <c r="M28" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18.75">
-      <c r="A29" s="69"/>
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="70" t="s">
+      <c r="I29" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="K29" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="70" t="s">
+      <c r="L29" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="72" t="s">
+      <c r="M29" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="67" t="s">
+      <c r="M30" s="57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75">
-      <c r="A31" s="37"/>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="63" t="s">
+      <c r="I31" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="63" t="s">
+      <c r="J31" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="63" t="s">
+      <c r="K31" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="63" t="s">
+      <c r="L31" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="64" t="s">
+      <c r="M31" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75">
-      <c r="A32" s="37"/>
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="B32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I32" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="63" t="s">
+      <c r="K32" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="63" t="s">
+      <c r="L32" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="64" t="s">
+      <c r="M32" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18.75">
-      <c r="A33" s="69"/>
-      <c r="B33" s="26" t="s">
+    <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="70" t="s">
+      <c r="J33" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="K33" s="70" t="s">
+      <c r="K33" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="L33" s="70" t="s">
+      <c r="L33" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="M33" s="72" t="s">
+      <c r="M33" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18.75">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="66" t="s">
+      <c r="H34" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="66" t="s">
+      <c r="I34" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="66" t="s">
+      <c r="J34" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="K34" s="66" t="s">
+      <c r="K34" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="L34" s="66" t="s">
+      <c r="L34" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M34" s="67" t="s">
+      <c r="M34" s="57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18.75">
-      <c r="A35" s="37"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="63" t="s">
+      <c r="I35" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="K35" s="63" t="s">
+      <c r="K35" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="63" t="s">
+      <c r="L35" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M35" s="64" t="s">
+      <c r="M35" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18.75">
-      <c r="A36" s="37"/>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H36" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="63" t="s">
+      <c r="I36" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="63" t="s">
+      <c r="J36" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="L36" s="63" t="s">
+      <c r="L36" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="M36" s="64" t="s">
+      <c r="M36" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18.75">
-      <c r="A37" s="69"/>
-      <c r="B37" s="26" t="s">
+    <row r="37" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="70" t="s">
+      <c r="F37" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="70" t="s">
+      <c r="J37" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K37" s="70" t="s">
+      <c r="K37" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="L37" s="70" t="s">
+      <c r="L37" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="72" t="s">
+      <c r="M37" s="61" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18.75">
-      <c r="A38" s="33" t="s">
+    <row r="38" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="66" t="s">
+      <c r="I38" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J38" s="66" t="s">
+      <c r="J38" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="L38" s="66" t="s">
+      <c r="L38" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="67" t="s">
+      <c r="M38" s="57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18.75">
-      <c r="A39" s="37"/>
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="63" t="s">
+      <c r="I39" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="63" t="s">
+      <c r="J39" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="63" t="s">
+      <c r="K39" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="L39" s="63" t="s">
+      <c r="L39" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M39" s="64" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18.75">
-      <c r="A40" s="37"/>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+      <c r="B40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="68"/>
-      <c r="H40" s="38" t="s">
+      <c r="G40" s="58"/>
+      <c r="H40" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="38" t="s">
+      <c r="I40" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="63" t="s">
+      <c r="J40" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="K40" s="63" t="s">
+      <c r="K40" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="L40" s="63" t="s">
+      <c r="L40" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M40" s="64" t="s">
+      <c r="M40" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18.75">
-      <c r="A41" s="69"/>
-      <c r="B41" s="26" t="s">
+    <row r="41" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="66"/>
+      <c r="B41" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="75"/>
-      <c r="H41" s="71" t="s">
+      <c r="G41" s="63"/>
+      <c r="H41" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="70" t="s">
+      <c r="J41" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="K41" s="70" t="s">
+      <c r="K41" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="L41" s="70" t="s">
+      <c r="L41" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="72" t="s">
+      <c r="M41" s="61" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5620,18 +5627,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="13" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5670,1425 +5678,1425 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.872</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.84209999999999996</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0.92679999999999996</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0.86270000000000002</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0.71430000000000005</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>0.89580000000000004</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>0.92589999999999995</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>0.89359999999999995</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.89470000000000005</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>0.92859999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.54400000000000004</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.56140000000000001</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0.75609999999999999</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>0.50980000000000003</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>0.2041</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0.25</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.41670000000000001</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>0.64810000000000001</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0.61699999999999999</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>0.66669999999999996</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.504</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.54390000000000005</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.75609999999999999</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.45100000000000001</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>0.1429</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>0.41670000000000001</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.53700000000000003</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.59570000000000001</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>0.63160000000000005</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>0.71430000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.54390000000000005</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.75609999999999999</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.45100000000000001</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0.1429</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0.15</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0.41670000000000001</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0.53700000000000003</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.57450000000000001</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>0.63160000000000005</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>0.71430000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>0.9123</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>0.95120000000000005</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>0.94120000000000004</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>0.81630000000000003</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>0.85</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>0.8125</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>0.92589999999999995</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <v>0.97870000000000001</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <v>0.9123</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>0.92859999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.70730000000000004</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0.54900000000000004</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.22450000000000001</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.35</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>0.4375</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>0.64810000000000001</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>0.63829999999999998</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>0.64910000000000001</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>0.76790000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.63160000000000005</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.70730000000000004</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>0.52939999999999998</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>0.2041</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>0.35</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>0.41670000000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>0.59260000000000002</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>0.61699999999999999</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>0.63160000000000005</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.73209999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.54</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.63160000000000005</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.70730000000000004</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0.52939999999999998</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0.1837</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>0.41670000000000001</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>0.55559999999999998</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0.61699999999999999</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>0.63160000000000005</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.73209999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>0.92</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>0.89470000000000005</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>0.97560000000000002</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>0.96079999999999999</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>0.85709999999999997</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>0.875</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>0.875</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>0.90739999999999998</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>1</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>0.9123</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.78049999999999997</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.56859999999999999</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0.28570000000000001</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.4</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>0.4375</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>0.64810000000000001</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>0.70209999999999995</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>0.68420000000000003</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0.58199999999999996</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.64910000000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>0.78049999999999997</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>0.56859999999999999</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>0.24490000000000001</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>0.35</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>0.4375</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>0.59260000000000002</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>0.70209999999999995</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0.68420000000000003</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>0.64910000000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0.78049999999999997</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>0.56859999999999999</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>0.24490000000000001</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>0.35</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>0.4375</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>0.59260000000000002</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>0.68089999999999995</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>0.68420000000000003</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>0.9123</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>0.97560000000000002</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <v>0.92159999999999997</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <v>0.81630000000000003</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <v>0.9</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="11">
         <v>0.875</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <v>0.92589999999999995</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <v>0.94740000000000002</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="10">
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.57599999999999996</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0.59650000000000003</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0.78049999999999997</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>0.54900000000000004</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>0.22450000000000001</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>0.5</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>0.55559999999999998</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>0.65959999999999996</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0.68420000000000003</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>0.71430000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.56399999999999995</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.59650000000000003</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>0.78049999999999997</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>0.52939999999999998</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>0.2041</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>0.4</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>0.47920000000000001</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>0.55559999999999998</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>0.65959999999999996</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>0.68420000000000003</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>0.71430000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>0.59650000000000003</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>0.75609999999999999</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>0.50980000000000003</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>0.2041</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>0.4</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>0.45829999999999999</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>0.55559999999999998</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>0.65959999999999996</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>0.68420000000000003</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>0.71430000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>0.93200000000000005</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>0.92979999999999996</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>0.96079999999999999</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <v>0.8367</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>0.85419999999999996</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>0.92589999999999995</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <v>0.97870000000000001</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="10">
         <v>0.96489999999999998</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="10">
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>0.70799999999999996</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.70179999999999998</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>0.48980000000000001</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>0.625</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>0.75929999999999997</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>0.76600000000000001</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>0.78949999999999998</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>0.70179999999999998</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>0.64710000000000001</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>0.38779999999999998</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>0.60419999999999996</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>0.68520000000000003</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>0.74470000000000003</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>0.78949999999999998</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>0.68</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.70179999999999998</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>0.82930000000000004</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>0.64710000000000001</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>0.38779999999999998</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>0.60419999999999996</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>0.68520000000000003</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>0.74470000000000003</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>0.78949999999999998</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>0.84209999999999996</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>0.95120000000000005</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <v>0.90200000000000002</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="14">
         <v>0.75509999999999999</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="14">
         <v>0.875</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="14">
         <v>0.875</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="14">
         <v>0.90739999999999998</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="14">
         <v>0.93620000000000003</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="13">
         <v>0.92979999999999996</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="14">
         <v>0.91069999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75">
-      <c r="A23" s="5"/>
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>0.60599999999999998</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>0.68420000000000003</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>0.75609999999999999</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>0.54900000000000004</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>0.30609999999999998</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>0.35</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>0.52080000000000004</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>0.68520000000000003</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>0.63829999999999998</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>0.66669999999999996</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>0.82140000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75">
-      <c r="A24" s="5"/>
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>0.58199999999999996</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0.68420000000000003</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>0.75609999999999999</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>0.50980000000000003</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>0.26529999999999998</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>0.5</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>0.59260000000000002</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>0.63829999999999998</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>0.66669999999999996</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <v>0.80359999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>0.57799999999999996</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>0.68420000000000003</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>0.73170000000000002</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>0.50980000000000003</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>0.24490000000000001</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>0.5</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>0.59260000000000002</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>0.63829999999999998</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <v>0.66669999999999996</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>0.80359999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>0.91847999999999996</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>0.92979999999999996</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>0.95120000000000005</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <v>0.94120000000000004</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="14">
         <v>0.77549999999999997</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="14">
         <v>0.875</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="14">
         <v>0.89580000000000004</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="14">
         <v>0.92589999999999995</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="14">
         <v>0.97870000000000001</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="13">
         <v>0.94740000000000002</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="14">
         <v>0.96430000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>0.67929000000000006</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>0.73680000000000001</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>0.60780000000000001</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>0.5</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>0.60419999999999996</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>0.68520000000000003</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>0.74470000000000003</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <v>0.75439999999999996</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>0.85709999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="B28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>0.65609999999999991</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>0.73680000000000001</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>0.58819999999999995</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>0.34689999999999999</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>0.45</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>0.5625</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>0.74470000000000003</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>0.75439999999999996</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>0.85709999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18.75">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="18">
         <v>0.65423999999999993</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>0.73680000000000001</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="19">
         <v>0.58819999999999995</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="20">
         <v>0.34689999999999999</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="19">
         <v>0.45</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="19">
         <v>0.5625</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="19">
         <v>0.64810000000000001</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="19">
         <v>0.74470000000000003</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="18">
         <v>0.75439999999999996</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="19">
         <v>0.85709999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>0.93200000000000005</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <v>0.92979999999999996</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>1</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <v>0.94120000000000004</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="14">
         <v>0.8367</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="14">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="14">
         <v>0.89580000000000004</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="14">
         <v>0.92589999999999995</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="14">
         <v>0.95740000000000003</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="13">
         <v>0.96489999999999998</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="14">
         <v>0.94640000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75">
-      <c r="A31" s="5"/>
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="71"/>
+      <c r="B31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>0.74</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>0.75439999999999996</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>0.55100000000000005</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>0.6875</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <v>0.77780000000000005</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7">
         <v>0.78720000000000001</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <v>0.8246</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <v>0.85709999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75">
-      <c r="A32" s="5"/>
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="71"/>
+      <c r="B32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>0.70799999999999996</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>0.71930000000000005</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>0.64710000000000001</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>0.64580000000000004</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <v>0.74070000000000003</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <v>0.76600000000000001</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <v>0.8246</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="7">
         <v>0.85709999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18.75">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>0.70399999999999996</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>0.71930000000000005</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>0.82930000000000004</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>0.64710000000000001</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>0.40820000000000001</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>0.64580000000000004</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <v>0.74070000000000003</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <v>0.76600000000000001</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <v>0.8246</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
         <v>0.85709999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18.75">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>0.88867999999999991</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="14">
         <v>0.89470000000000005</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="14">
         <v>0.97560000000000002</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="14">
         <v>0.80389999999999995</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="14">
         <v>0.79590000000000005</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="14">
         <v>0.8</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="14">
         <v>0.875</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="14">
         <v>0.92589999999999995</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="14">
         <v>0.95740000000000003</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="13">
         <v>0.92979999999999996</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="14">
         <v>0.92859999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18.75">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="71"/>
+      <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>0.65728999999999993</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>0.64710000000000001</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>0.34689999999999999</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>0.4</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>0.60419999999999996</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="7">
         <v>0.74070000000000003</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="7">
         <v>0.70209999999999995</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <v>0.75439999999999996</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="7">
         <v>0.85709999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18.75">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="71"/>
+      <c r="B36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>0.63117999999999996</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>0.64910000000000001</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>0.62749999999999995</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>0.28570000000000001</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>0.35</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>0.58330000000000004</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7">
         <v>0.70209999999999995</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <v>0.75439999999999996</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18.75">
-      <c r="A37" s="18"/>
-      <c r="B37" s="26" t="s">
+    <row r="37" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="22">
         <v>0.62332999999999994</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="23">
         <v>0.64910000000000001</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="23">
         <v>0.85370000000000001</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="23">
         <v>0.60780000000000001</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="23">
         <v>0.26529999999999998</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="23">
         <v>0.35</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="23">
         <v>0.5625</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="23">
         <v>0.66669999999999996</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="23">
         <v>0.70209999999999995</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="22">
         <v>0.73680000000000001</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="23">
         <v>0.83930000000000005</v>
       </c>
     </row>
@@ -7123,1125 +7131,1126 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="13" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="13" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75">
-      <c r="A3" s="37"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75">
-      <c r="A4" s="37"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="37"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="65"/>
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="34" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75">
-      <c r="A7" s="37"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="37"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="34" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="37"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="34" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="30" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75">
-      <c r="A12" s="37"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75">
-      <c r="A13" s="37"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="34" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="41"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="34" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75">
-      <c r="A16" s="41"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="34" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="34" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="37"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
-      <c r="A19" s="37"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75">
-      <c r="A21" s="37"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
-      <c r="A22" s="37"/>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="34" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="30" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75">
-      <c r="A24" s="37"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="37"/>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="J26" s="34" t="s">
+      <c r="J26" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="L26" s="34" t="s">
+      <c r="L26" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="30" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
-      <c r="A27" s="37"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K27" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="M27" s="34" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75">
-      <c r="A28" s="42"/>
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="75"/>
+      <c r="B28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="K28" s="43" t="s">
+      <c r="K28" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="M28" s="44" t="s">
+      <c r="M28" s="36" t="s">
         <v>237</v>
       </c>
     </row>
